--- a/dados/tabela_geral_estados.xlsx
+++ b/dados/tabela_geral_estados.xlsx
@@ -7763,8 +7763,8 @@
   <sheetPr/>
   <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H217" sqref="H217"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8262,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="11">
-        <v>1941</v>
+        <v>194100</v>
       </c>
       <c r="E29" s="8">
         <v>2022</v>
